--- a/ProjectManagement/S_PM_07.xlsx
+++ b/ProjectManagement/S_PM_07.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sprints\ProjectManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A100814B-8190-44BC-AA3C-C48C0DFEF5A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B36FFD-2ACC-4165-A4A7-B5447CD38DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-2100" windowWidth="19440" windowHeight="15150" xr2:uid="{ADB7D7AA-B94C-4B82-9239-351C62946B5B}"/>
   </bookViews>
@@ -18,6 +18,14 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!#REF!</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!#REF!</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$I$66</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$I$67:$I$69</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$J$67:$J$69</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$K$67:$K$69</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -67,7 +75,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,8 +83,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -87,6 +103,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -102,7 +124,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -110,6 +132,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -132,7 +163,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
+  <c:roundedCorners val="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
       <c14:style val="102"/>
@@ -142,50 +173,28 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Actual Cost</c:v>
+            <c:strRef>
+              <c:f>Sheet1!$D$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Planned Value</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -196,40 +205,46 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$13:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$13:$B$19</c:f>
+              <c:f>Sheet1!$D$13:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1800</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2800</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5D6A-4853-8DC2-D1F933D3B7F2}"/>
+              <c16:uniqueId val="{00000000-1BBC-4303-9036-9A25AB54C04A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -238,17 +253,17 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$13</c:f>
+              <c:f>Sheet1!$C$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>800</c:v>
+                  <c:v>Earned Value</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -259,58 +274,43 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$13:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$13:$C$25</c:f>
+              <c:f>Sheet1!$C$13:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>800</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3200</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4600</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>5500</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6200</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7100</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7900</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8690</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9400</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5D6A-4853-8DC2-D1F933D3B7F2}"/>
+              <c16:uniqueId val="{00000001-1BBC-4303-9036-9A25AB54C04A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -318,10 +318,18 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Planed Value</c:v>
+            <c:strRef>
+              <c:f>Sheet1!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual Cost</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -332,58 +340,43 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$13:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$13:$D$25</c:f>
+              <c:f>Sheet1!$B$13:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>800</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3200</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4800</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5600</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6400</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7200</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8800</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9600</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10000</c:v>
+                  <c:v>7000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-5D6A-4853-8DC2-D1F933D3B7F2}"/>
+              <c16:uniqueId val="{00000002-1BBC-4303-9036-9A25AB54C04A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -395,12 +388,27 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                  <a:alpha val="33000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="830943162"/>
-        <c:axId val="831681080"/>
+        <c:axId val="646885924"/>
+        <c:axId val="773168433"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="830943162"/>
+        <c:axId val="646885924"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -409,13 +417,13 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr defTabSz="914400">
-                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
+                      <a:schemeClr val="dk1">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
@@ -427,7 +435,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Time (Months)</a:t>
+                  <a:t>Time</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -441,13 +449,13 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr defTabSz="914400">
-                <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
+                    <a:schemeClr val="dk1">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
@@ -461,6 +469,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -468,7 +477,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
+              <a:schemeClr val="dk1">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -478,13 +487,13 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:schemeClr val="dk1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -497,44 +506,30 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="831681080"/>
+        <c:crossAx val="773168433"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="831681080"/>
+        <c:axId val="773168433"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr defTabSz="914400">
-                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
+                      <a:schemeClr val="dk1">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
@@ -544,10 +539,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Cost (Hours)</a:t>
-                </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -560,13 +552,13 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr defTabSz="914400">
-                <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
+                    <a:schemeClr val="dk1">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
@@ -592,13 +584,13 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:schemeClr val="dk1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -611,12 +603,24 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="830943162"/>
+        <c:crossAx val="646885924"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
-        <a:noFill/>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -634,13 +638,13 @@
         <a:effectLst/>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
@@ -655,16 +659,16 @@
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -678,7 +682,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr lang="en-US"/>
+        <a:defRPr/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -732,25 +736,25 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="230">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -758,7 +762,7 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -766,22 +770,22 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" b="0" kern="1200" spc="20" baseline="0"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:chartArea mods="allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -789,16 +793,16 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -832,46 +836,60 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -883,33 +901,34 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -925,21 +944,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -954,13 +971,13 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -973,64 +990,176 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+            <a:alpha val="33000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -1038,120 +1167,24 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -1160,12 +1193,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1174,14 +1207,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1190,7 +1222,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -1210,9 +1242,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1223,51 +1255,40 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>132715</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="3" name="Chart 2" title="Chart">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FAD918D-C949-4736-A1EF-7772A5FC8D1E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3F62943-6845-4AB8-824C-2D9F00D99DD0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1285,8 +1306,8 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1298,146 +1319,50 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="13">
-          <cell r="B13" t="str">
-            <v>Actual Cost</v>
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>PV</v>
           </cell>
-          <cell r="C13" t="str">
-            <v>Earned Value</v>
+          <cell r="C1" t="str">
+            <v>EV</v>
           </cell>
-          <cell r="D13" t="str">
-            <v>Planned Value</v>
+          <cell r="D1" t="str">
+            <v>AC</v>
           </cell>
         </row>
-        <row r="14">
-          <cell r="B14">
-            <v>1000</v>
+        <row r="2">
+          <cell r="A2">
+            <v>0</v>
           </cell>
-          <cell r="C14">
-            <v>800</v>
+          <cell r="B2">
+            <v>0</v>
           </cell>
-          <cell r="D14">
-            <v>833.33333333333337</v>
+          <cell r="C2">
+            <v>0</v>
+          </cell>
+          <cell r="D2">
+            <v>0</v>
           </cell>
         </row>
-        <row r="15">
-          <cell r="B15">
-            <v>1750</v>
+        <row r="3">
+          <cell r="A3">
+            <v>10</v>
           </cell>
-          <cell r="C15">
-            <v>1620</v>
+          <cell r="B3">
+            <v>5000</v>
           </cell>
-          <cell r="D15">
-            <v>1666.6666666666667</v>
+          <cell r="C3">
+            <v>5500</v>
+          </cell>
+          <cell r="D3">
+            <v>7000</v>
           </cell>
         </row>
-        <row r="16">
-          <cell r="B16">
-            <v>2600</v>
+        <row r="4">
+          <cell r="A4">
+            <v>20</v>
           </cell>
-          <cell r="C16">
-            <v>2200</v>
-          </cell>
-          <cell r="D16">
-            <v>2500</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17">
-            <v>3800</v>
-          </cell>
-          <cell r="C17">
-            <v>3200</v>
-          </cell>
-          <cell r="D17">
-            <v>3333.3333333333335</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>5000</v>
-          </cell>
-          <cell r="C18">
-            <v>3900</v>
-          </cell>
-          <cell r="D18">
-            <v>4166.666666666667</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19">
-            <v>6100</v>
-          </cell>
-          <cell r="C19">
-            <v>4700</v>
-          </cell>
-          <cell r="D19">
-            <v>5000</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20">
-            <v>7000</v>
-          </cell>
-          <cell r="C20">
-            <v>5500</v>
-          </cell>
-          <cell r="D20">
-            <v>5833.333333333333</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21">
-            <v>8050</v>
-          </cell>
-          <cell r="C21">
-            <v>6268.5714285714303</v>
-          </cell>
-          <cell r="D21">
-            <v>6666.666666666667</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>9089.2857142857101</v>
-          </cell>
-          <cell r="C22">
-            <v>7052.8571428571404</v>
-          </cell>
-          <cell r="D22">
-            <v>7500</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23">
-            <v>10128.5714285714</v>
-          </cell>
-          <cell r="C23">
-            <v>7837.1428571428596</v>
-          </cell>
-          <cell r="D23">
-            <v>8333.3333333333339</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24">
-            <v>11167.857142857099</v>
-          </cell>
-          <cell r="C24">
-            <v>8621.4285714285706</v>
-          </cell>
-          <cell r="D24">
-            <v>9166.6666666666661</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25">
-            <v>12207.142857142901</v>
-          </cell>
-          <cell r="C25">
-            <v>10000</v>
-          </cell>
-          <cell r="D25">
+          <cell r="B4">
             <v>10000</v>
           </cell>
         </row>
@@ -1744,10 +1669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20B7811B-58A2-46BA-87DE-6EC38F855F15}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:K69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" activeCellId="1" sqref="E13 F13"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1821,203 +1746,112 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B13" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="C13" s="1">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B14" s="1">
-        <v>1800</v>
+        <v>7000</v>
       </c>
       <c r="C14" s="1">
-        <v>1600</v>
+        <v>5500</v>
       </c>
       <c r="D14" s="1">
-        <f>800+D13</f>
-        <v>1600</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>3</v>
-      </c>
-      <c r="B15" s="1">
-        <v>2800</v>
-      </c>
-      <c r="C15" s="1">
-        <v>2400</v>
+        <v>12</v>
       </c>
       <c r="D15" s="1">
-        <f>800+D14</f>
-        <v>2400</v>
+        <v>10000</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>4</v>
-      </c>
-      <c r="B16" s="1">
-        <v>4000</v>
-      </c>
-      <c r="C16" s="1">
-        <v>3200</v>
-      </c>
-      <c r="D16" s="1">
-        <f>800+D15</f>
-        <v>3200</v>
-      </c>
+      <c r="A16" s="1"/>
+      <c r="D16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>5</v>
-      </c>
-      <c r="B17" s="1">
-        <v>5100</v>
-      </c>
-      <c r="C17" s="1">
-        <v>4100</v>
-      </c>
-      <c r="D17" s="1">
-        <v>4000</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="D17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>6</v>
-      </c>
-      <c r="B18" s="1">
-        <v>6000</v>
-      </c>
-      <c r="C18" s="1">
-        <v>4600</v>
-      </c>
-      <c r="D18" s="1">
-        <v>4800</v>
-      </c>
+      <c r="A18" s="1"/>
+      <c r="D18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>7</v>
-      </c>
-      <c r="B19" s="1">
-        <v>7000</v>
-      </c>
-      <c r="C19" s="1">
-        <v>5500</v>
-      </c>
-      <c r="D19" s="1">
-        <v>5600</v>
-      </c>
+      <c r="A19" s="1"/>
+      <c r="D19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>8</v>
-      </c>
-      <c r="C20" s="1">
-        <v>6200</v>
-      </c>
-      <c r="D20" s="1">
-        <v>6400</v>
-      </c>
+      <c r="A20" s="1"/>
+      <c r="D20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>9</v>
-      </c>
-      <c r="C21" s="1">
-        <v>7100</v>
-      </c>
-      <c r="D21" s="1">
-        <v>7200</v>
-      </c>
+      <c r="A21" s="1"/>
+      <c r="D21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>10</v>
-      </c>
-      <c r="C22" s="1">
-        <v>7900</v>
-      </c>
-      <c r="D22" s="1">
-        <v>8000</v>
-      </c>
+      <c r="A22" s="1"/>
+      <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>11</v>
-      </c>
-      <c r="C23" s="1">
-        <v>8690</v>
-      </c>
-      <c r="D23" s="1">
-        <v>8800</v>
-      </c>
+      <c r="A23" s="1"/>
+      <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>12</v>
-      </c>
-      <c r="C24" s="1">
-        <v>9400</v>
-      </c>
-      <c r="D24" s="1">
-        <v>9600</v>
-      </c>
+      <c r="A24" s="1"/>
+      <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>12.5</v>
-      </c>
-      <c r="C25" s="1">
-        <v>10000</v>
-      </c>
-      <c r="D25" s="1">
-        <v>10000</v>
-      </c>
+      <c r="A25" s="1"/>
+      <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -2044,6 +1878,28 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
+    <row r="66" spans="8:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="H66" s="4"/>
+      <c r="I66" s="6"/>
+    </row>
+    <row r="67" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
+    </row>
+    <row r="68" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5"/>
+    </row>
+    <row r="69" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ProjectManagement/S_PM_07.xlsx
+++ b/ProjectManagement/S_PM_07.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sprints\ProjectManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B36FFD-2ACC-4165-A4A7-B5447CD38DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F9228A-5352-44B2-A98F-A3EC02FA2049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-2100" windowWidth="19440" windowHeight="15150" xr2:uid="{ADB7D7AA-B94C-4B82-9239-351C62946B5B}"/>
   </bookViews>
@@ -68,7 +68,7 @@
     <t>Project is overbudget by 1500</t>
   </si>
   <si>
-    <t xml:space="preserve">Project is delayed by </t>
+    <t xml:space="preserve">Project is a head by 500Hrs </t>
   </si>
 </sst>
 </file>
@@ -1672,7 +1672,7 @@
   <dimension ref="A1:K69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
